--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_4_4.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_4_4.xlsx
@@ -482,772 +482,772 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6684557879903787</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.9100156218193028</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.2829972253910134</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.509906072203437</v>
       </c>
       <c r="F2" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3669217526912689</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1010679975152016</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.664248585700989</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.8366822600364685</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_22</t>
+          <t>model_4_4_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.683626272452579</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.9049237008223188</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3042575693184714</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.521735952124135</v>
       </c>
       <c r="F3" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3501324653625488</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1067871153354645</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.614900827407837</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.8164864182472229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_21</t>
+          <t>model_4_4_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6975153306565182</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8947925582086143</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3221677590490467</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5296655678447494</v>
       </c>
       <c r="F4" t="n">
-        <v>1.087675213813782</v>
+        <v>0.334761381149292</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1181661263108253</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.573329210281372</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.802949070930481</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_20</t>
+          <t>model_4_4_11</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6994980780308234</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8742659282225739</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3229044523762951</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5229877998731991</v>
       </c>
       <c r="F5" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3325670659542084</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1412210911512375</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.571619153022766</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.8143492937088013</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_19</t>
+          <t>model_4_4_13</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7020053903228777</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8728205407014865</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3303691317837597</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5272603113083143</v>
       </c>
       <c r="F6" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3297922313213348</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1428444981575012</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.554292678833008</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.8070554137229919</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_18</t>
+          <t>model_4_4_10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7022782646560677</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8761049879829474</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3326048649968711</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5298349473314377</v>
       </c>
       <c r="F7" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3294902145862579</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1391555070877075</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.549103379249573</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.8026600480079651</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_17</t>
+          <t>model_4_4_9</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7026112738418333</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8764254340771886</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3339027982645327</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5307767252835462</v>
       </c>
       <c r="F8" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3291216492652893</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1387955844402313</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.546090722084045</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.8010520935058594</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_16</t>
+          <t>model_4_4_12</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7027623781178884</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8737188735154413</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3324128347244635</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5288803183896613</v>
       </c>
       <c r="F9" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3289544880390167</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1418355256319046</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.549549102783203</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.8042897582054138</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_15</t>
+          <t>model_4_4_24</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7029256953378917</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8780341444304357</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3288350033750518</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5280949423885281</v>
       </c>
       <c r="F10" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3287737369537354</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1369887292385101</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.557853698730469</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.8056304454803467</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_14</t>
+          <t>model_4_4_23</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7029373400039836</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8772191374683332</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3294285461558285</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5281905321196545</v>
       </c>
       <c r="F11" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3287608325481415</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1379041224718094</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.55647599697113</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.8054672479629517</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_13</t>
+          <t>model_4_4_19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7030944778229764</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8774197168237126</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3300992948189122</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5286901239716139</v>
       </c>
       <c r="F12" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3285869061946869</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1376788169145584</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.554919123649597</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.8046144843101501</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_23</t>
+          <t>model_4_4_21</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7031227151132607</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8773821715584417</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3300855849611407</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5286679213634493</v>
       </c>
       <c r="F13" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3285556733608246</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1377210021018982</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.554951071739197</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.8046522736549377</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_12</t>
+          <t>model_4_4_22</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7031408264771586</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8772703832398968</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3301359404447345</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5286608344807811</v>
       </c>
       <c r="F14" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3285356163978577</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1378465592861176</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.554834008216858</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.8046643733978271</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_10</t>
+          <t>model_4_4_18</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7031994715781618</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8776579788133476</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3304066478604741</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5289692955899117</v>
       </c>
       <c r="F15" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3284707069396973</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1374112367630005</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.554205656051636</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.8041377663612366</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_9</t>
+          <t>model_4_4_20</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.70322471651263</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8773515443555544</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3305039993319383</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5289248437376517</v>
       </c>
       <c r="F16" t="n">
-        <v>1.087675213813782</v>
+        <v>0.32844278216362</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.137755423784256</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.553979754447937</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.8042136430740356</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_8</t>
+          <t>model_4_4_14</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7037086977801366</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8758545126375682</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3338394054773862</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5305368056836393</v>
       </c>
       <c r="F17" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3279071748256683</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1394368410110474</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.546237826347351</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.8014616966247559</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_7</t>
+          <t>model_4_4_17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7037204078901853</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8777074779903243</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3323417524304575</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.530224291075495</v>
       </c>
       <c r="F18" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3278942108154297</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1373556405305862</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.549714088439941</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.8019952774047852</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_6</t>
+          <t>model_4_4_15</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7040584575013296</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8772512338560065</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3339609061715154</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5311021211286993</v>
       </c>
       <c r="F19" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3275201022624969</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1378680765628815</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.545955896377563</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.8004966974258423</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_5</t>
+          <t>model_4_4_16</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7042708279821837</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8777545766189556</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3342810293407555</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5314817303507453</v>
       </c>
       <c r="F20" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3272850811481476</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1373027414083481</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.545212864875793</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.7998486161231995</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_4</t>
+          <t>model_4_4_3</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7061710945194537</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8932996562493819</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3461915087233728</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5445166343783956</v>
       </c>
       <c r="F21" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3251820206642151</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1198429241776466</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.517567157745361</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.7775956392288208</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_3</t>
+          <t>model_4_4_8</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7062253158344622</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8815263157746647</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3435388818733195</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5387185307845261</v>
       </c>
       <c r="F22" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3251220285892487</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1330664157867432</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.523724317550659</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.7874940633773804</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_2</t>
+          <t>model_4_4_6</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.708713968026623</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8856122377451789</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.351049716694258</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5449473662129757</v>
       </c>
       <c r="F23" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3223678171634674</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1284772157669067</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.506290674209595</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.776860237121582</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_1</t>
+          <t>model_4_4_4</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7094371083248838</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8891990247186087</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3574031548441156</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5502623409308316</v>
       </c>
       <c r="F24" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3215675055980682</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1244486272335052</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.491543650627136</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.7677865028381348</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_11</t>
+          <t>model_4_4_7</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7114484381446619</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8846762934229619</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.359859779531388</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.5502582858516588</v>
       </c>
       <c r="F25" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3193415999412537</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1295284628868103</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.485841512680054</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.7677934765815735</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_24</t>
+          <t>model_4_4_5</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7164766403374467</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.0376264412228442</v>
+        <v>0.8927093415060943</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2405955090833269</v>
+        <v>0.3768346786395086</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.1357149185298996</v>
+        <v>0.563916923414316</v>
       </c>
       <c r="F26" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3137767910957336</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09636089950799942</v>
+        <v>0.1205059587955475</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8820924758911133</v>
+        <v>1.446440815925598</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4661170840263367</v>
+        <v>0.7444756031036377</v>
       </c>
     </row>
   </sheetData>
